--- a/data/FEHDataStudent.xlsx
+++ b/data/FEHDataStudent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domparsons/Documents/Loughborough/Year 2/AI Methods/ANN Coursework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domparsons/Developer/artificial-neural-network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992A1DBD-8F71-DF4E-93E6-CA69B44A25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA9BF7-5B19-AE4F-9CBD-3F90F60D5BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -966,7 +966,7 @@
   <dimension ref="A1:M598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
